--- a/src/analysis_examples/circadipy/results_circadipy/square_01/cosinor_1_square_01_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/square_01/cosinor_1_square_01_.xlsx
@@ -571,53 +571,55 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>22.16000000000003</v>
+        <v>22</v>
       </c>
       <c r="F2" t="n">
         <v>1</v>
       </c>
       <c r="G2" t="n">
-        <v>1.110223024625157e-16</v>
+        <v>2.753020034163001e-12</v>
       </c>
       <c r="H2" t="n">
-        <v>2.793013898428067e-16</v>
-      </c>
-      <c r="I2" t="inlineStr"/>
+        <v>8.031900426556314e-12</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.1391838349699088</v>
+      </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="n">
-        <v>53.69622586402684</v>
+        <v>38.7665550046719</v>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[40.75085333625822, 66.64159839179547]</t>
+          <t>[27.787891635915592, 49.74521837342821]</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>4.019007349143067e-14</v>
+        <v>5.273825820495404e-11</v>
       </c>
       <c r="N2" t="n">
-        <v>4.019007349143067e-14</v>
+        <v>5.273825820495404e-11</v>
       </c>
       <c r="O2" t="n">
-        <v>1.352237078121733</v>
+        <v>1.50318447288881</v>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>[1.1006580868432705, 1.603816069400195]</t>
+          <t>[1.1635528346628856, 1.8428161111147343]</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>1.332267629550188e-15</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>1.332267629550188e-15</v>
       </c>
       <c r="S2" t="n">
-        <v>68.47605298522805</v>
+        <v>54.65485085037316</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[60.9241197986543, 76.0279861718018]</t>
+          <t>[47.71791256022658, 61.59178914051974]</t>
         </is>
       </c>
       <c r="U2" t="n">
@@ -627,13 +629,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>17.39083083083085</v>
+        <v>16.73673673673674</v>
       </c>
       <c r="X2" t="n">
-        <v>16.50354354354356</v>
+        <v>15.54754754754755</v>
       </c>
       <c r="Y2" t="n">
-        <v>18.27811811811814</v>
+        <v>17.92592592592593</v>
       </c>
     </row>
     <row r="3">
@@ -652,7 +654,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>24.77000000000043</v>
+        <v>24.69000000000042</v>
       </c>
       <c r="F3" t="n">
         <v>1</v>
@@ -661,16 +663,16 @@
         <v>1.110223024625157e-16</v>
       </c>
       <c r="H3" t="n">
-        <v>2.793013898428067e-16</v>
+        <v>3.51058663913093e-16</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="n">
-        <v>43.20364627338242</v>
+        <v>49.89521492954081</v>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>[33.80740636113515, 52.599886185629686]</t>
+          <t>[40.124360729582556, 59.66606912949906]</t>
         </is>
       </c>
       <c r="M3" t="n">
@@ -680,11 +682,11 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>-2.465474114528927</v>
+        <v>-2.566105711040311</v>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>[-2.6793162571156195, -2.251631971942234]</t>
+          <t>[-2.76736890406308, -2.364842518017543]</t>
         </is>
       </c>
       <c r="Q3" t="n">
@@ -694,11 +696,11 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>61.41971351969622</v>
+        <v>63.94937950423303</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>[56.50945081953087, 66.32997621986156]</t>
+          <t>[58.88155936327668, 69.01719964518938]</t>
         </is>
       </c>
       <c r="U3" t="n">
@@ -708,13 +710,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>9.719559559559729</v>
+        <v>10.08360360360378</v>
       </c>
       <c r="X3" t="n">
-        <v>8.87653653653669</v>
+        <v>9.292732732732896</v>
       </c>
       <c r="Y3" t="n">
-        <v>10.56258258258277</v>
+        <v>10.87447447447465</v>
       </c>
     </row>
   </sheetData>

--- a/src/analysis_examples/circadipy/results_circadipy/square_01/cosinor_1_square_01_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/square_01/cosinor_1_square_01_.xlsx
@@ -571,55 +571,53 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>22</v>
+        <v>22.70000000000011</v>
       </c>
       <c r="F2" t="n">
         <v>1</v>
       </c>
       <c r="G2" t="n">
-        <v>2.753020034163001e-12</v>
+        <v>1.110223024625157e-16</v>
       </c>
       <c r="H2" t="n">
-        <v>8.031900426556314e-12</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0.1391838349699088</v>
-      </c>
+        <v>3.581364595565021e-16</v>
+      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="n">
-        <v>38.7665550046719</v>
+        <v>48.80307222012294</v>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[27.787891635915592, 49.74521837342821]</t>
+          <t>[36.916557336099366, 60.689587104146504]</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>5.273825820495404e-11</v>
+        <v>6.661338147750939e-14</v>
       </c>
       <c r="N2" t="n">
-        <v>5.273825820495404e-11</v>
+        <v>6.661338147750939e-14</v>
       </c>
       <c r="O2" t="n">
-        <v>1.50318447288881</v>
+        <v>1.754763464167271</v>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>[1.1635528346628856, 1.8428161111147343]</t>
+          <t>[1.46544762419704, 2.0440793041375027]</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>1.332267629550188e-15</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>1.332267629550188e-15</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>54.65485085037316</v>
+        <v>62.61701046045238</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[47.71791256022658, 61.59178914051974]</t>
+          <t>[55.36812674163646, 69.8658941792683]</t>
         </is>
       </c>
       <c r="U2" t="n">
@@ -629,13 +627,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>16.73673673673674</v>
+        <v>16.36036036036044</v>
       </c>
       <c r="X2" t="n">
-        <v>15.54754754754755</v>
+        <v>15.31511511511519</v>
       </c>
       <c r="Y2" t="n">
-        <v>17.92592592592593</v>
+        <v>17.40560560560569</v>
       </c>
     </row>
     <row r="3">
@@ -654,7 +652,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>24.69000000000042</v>
+        <v>24.71000000000042</v>
       </c>
       <c r="F3" t="n">
         <v>1</v>
@@ -663,16 +661,16 @@
         <v>1.110223024625157e-16</v>
       </c>
       <c r="H3" t="n">
-        <v>3.51058663913093e-16</v>
+        <v>3.581364595565021e-16</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="n">
-        <v>49.89521492954081</v>
+        <v>44.95445257058392</v>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>[40.124360729582556, 59.66606912949906]</t>
+          <t>[35.473581811158304, 54.43532333000953]</t>
         </is>
       </c>
       <c r="M3" t="n">
@@ -682,11 +680,11 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>-2.566105711040311</v>
+        <v>-2.415158316273235</v>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>[-2.76736890406308, -2.364842518017543]</t>
+          <t>[-2.6290004588599287, -2.2013161736865405]</t>
         </is>
       </c>
       <c r="Q3" t="n">
@@ -696,11 +694,11 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>63.94937950423303</v>
+        <v>63.6116256843785</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>[58.88155936327668, 69.01719964518938]</t>
+          <t>[58.68618944204529, 68.53706192671171]</t>
         </is>
       </c>
       <c r="U3" t="n">
@@ -710,13 +708,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>10.08360360360378</v>
+        <v>9.498138138138302</v>
       </c>
       <c r="X3" t="n">
-        <v>9.292732732732896</v>
+        <v>8.6571571571573</v>
       </c>
       <c r="Y3" t="n">
-        <v>10.87447447447465</v>
+        <v>10.3391191191193</v>
       </c>
     </row>
   </sheetData>
